--- a/KICS-KPIs-over-time.xlsx
+++ b/KICS-KPIs-over-time.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7680,6 +7680,131 @@
         <v>64</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2023/07/17</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>v1.7.3</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>2492</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>43812</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2063442</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1639</v>
+      </c>
+      <c r="I104" t="n">
+        <v>252</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>2133</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>42</v>
+      </c>
+      <c r="O104" t="n">
+        <v>315</v>
+      </c>
+      <c r="P104" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>73</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="V104" t="n">
+        <v>7166</v>
+      </c>
+      <c r="W104" t="n">
+        <v>64</v>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/KICS-KPIs-over-time.xlsx
+++ b/KICS-KPIs-over-time.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,18 +575,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>44126</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -602,8 +593,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -644,24 +633,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>44133</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -677,8 +653,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -719,28 +693,16 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>git tag &amp; release</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>44140</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -756,8 +718,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -798,24 +758,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>44151</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -831,8 +778,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -873,24 +818,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>44154</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -906,8 +838,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -948,24 +878,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>44161</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -981,8 +898,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1023,15 +938,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>44195</v>
       </c>
       <c r="D8" t="inlineStr">
@@ -1045,10 +954,6 @@
       <c r="F8" t="n">
         <v>3024</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1064,8 +969,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1106,28 +1009,17 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>44168</v>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>48</v>
       </c>
       <c r="F9" t="n">
         <v>3024</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1143,8 +1035,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1185,28 +1075,17 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>44175</v>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>48</v>
       </c>
       <c r="F10" t="n">
         <v>3024</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1222,8 +1101,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1264,28 +1141,17 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>44182</v>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>48</v>
       </c>
       <c r="F11" t="n">
         <v>3024</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1301,8 +1167,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1343,28 +1207,17 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>44188</v>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>48</v>
       </c>
       <c r="F12" t="n">
         <v>3024</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1380,8 +1233,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1422,15 +1273,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>44196</v>
       </c>
       <c r="D13" t="inlineStr">
@@ -1444,10 +1289,6 @@
       <c r="F13" t="n">
         <v>3517</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1463,8 +1304,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1505,32 +1344,23 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>44203</v>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>1162</v>
       </c>
       <c r="F14" t="n">
         <v>3517</v>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>23</v>
       </c>
       <c r="I14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1546,8 +1376,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1588,15 +1416,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>44208</v>
       </c>
       <c r="D15" t="inlineStr">
@@ -1610,14 +1432,12 @@
       <c r="F15" t="n">
         <v>3853</v>
       </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>23</v>
       </c>
       <c r="I15" t="n">
         <v>7</v>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1633,8 +1453,6 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1675,32 +1493,23 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>44216</v>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>1213</v>
       </c>
       <c r="F16" t="n">
         <v>3853</v>
       </c>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>75</v>
       </c>
       <c r="I16" t="n">
         <v>9</v>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1712,8 +1521,6 @@
       <c r="M16" t="n">
         <v>111</v>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1744,18 +1551,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>44224</v>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>1213</v>
       </c>
@@ -1771,7 +1571,6 @@
       <c r="I17" t="n">
         <v>9</v>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1783,8 +1582,6 @@
       <c r="M17" t="n">
         <v>111</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
         <v>9</v>
       </c>
@@ -1813,15 +1610,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>44225</v>
       </c>
       <c r="D18" t="inlineStr">
@@ -1844,7 +1635,6 @@
       <c r="I18" t="n">
         <v>9</v>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1856,8 +1646,6 @@
       <c r="M18" t="n">
         <v>111</v>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
         <v>9</v>
       </c>
@@ -1886,15 +1674,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>44237</v>
       </c>
       <c r="D19" t="inlineStr">
@@ -1917,7 +1699,6 @@
       <c r="I19" t="n">
         <v>9</v>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1929,8 +1710,6 @@
       <c r="M19" t="n">
         <v>111</v>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
         <v>9</v>
       </c>
@@ -1959,18 +1738,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>44238</v>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>1219</v>
       </c>
@@ -1986,7 +1758,6 @@
       <c r="I20" t="n">
         <v>12</v>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -1998,8 +1769,6 @@
       <c r="M20" t="n">
         <v>1606</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
         <v>9</v>
       </c>
@@ -2026,15 +1795,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>44251</v>
       </c>
       <c r="D21" t="inlineStr">
@@ -2057,7 +1820,6 @@
       <c r="I21" t="n">
         <v>12</v>
       </c>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2069,8 +1831,6 @@
       <c r="M21" t="n">
         <v>1606</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
         <v>9</v>
       </c>
@@ -2097,18 +1857,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>44252</v>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>1104</v>
       </c>
@@ -2124,7 +1877,6 @@
       <c r="I22" t="n">
         <v>16</v>
       </c>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2136,8 +1888,6 @@
       <c r="M22" t="n">
         <v>2676</v>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
         <v>9</v>
       </c>
@@ -2164,15 +1914,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>44265</v>
       </c>
       <c r="D23" t="inlineStr">
@@ -2195,7 +1939,6 @@
       <c r="I23" t="n">
         <v>16</v>
       </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2207,8 +1950,6 @@
       <c r="M23" t="n">
         <v>2676</v>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
         <v>9</v>
       </c>
@@ -2235,18 +1976,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <v>44266</v>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>1174</v>
       </c>
@@ -2262,7 +1996,6 @@
       <c r="I24" t="n">
         <v>24</v>
       </c>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2274,8 +2007,6 @@
       <c r="M24" t="n">
         <v>5546</v>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
         <v>7</v>
       </c>
@@ -2302,15 +2033,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="3" t="n">
         <v>44279</v>
       </c>
       <c r="D25" t="inlineStr">
@@ -2333,7 +2058,6 @@
       <c r="I25" t="n">
         <v>24</v>
       </c>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2345,8 +2069,6 @@
       <c r="M25" t="n">
         <v>5546</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
         <v>7</v>
       </c>
@@ -2373,18 +2095,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="3" t="n">
         <v>44280</v>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>1224</v>
       </c>
@@ -2400,7 +2115,6 @@
       <c r="I26" t="n">
         <v>26</v>
       </c>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2412,8 +2126,6 @@
       <c r="M26" t="n">
         <v>7437</v>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
         <v>10</v>
       </c>
@@ -2440,15 +2152,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="3" t="n">
         <v>44293</v>
       </c>
       <c r="D27" t="inlineStr">
@@ -2471,7 +2177,6 @@
       <c r="I27" t="n">
         <v>26</v>
       </c>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2483,8 +2188,6 @@
       <c r="M27" t="n">
         <v>7437</v>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
         <v>10</v>
       </c>
@@ -2511,18 +2214,11 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>1333</v>
       </c>
@@ -2538,7 +2234,6 @@
       <c r="I28" t="n">
         <v>42</v>
       </c>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2550,8 +2245,6 @@
       <c r="M28" t="n">
         <v>9400</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
         <v>8</v>
       </c>
@@ -2578,15 +2271,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="3" t="n">
         <v>44296</v>
       </c>
       <c r="D29" t="inlineStr">
@@ -2609,7 +2296,6 @@
       <c r="I29" t="n">
         <v>42</v>
       </c>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2621,8 +2307,6 @@
       <c r="M29" t="n">
         <v>9400</v>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
         <v>8</v>
       </c>
@@ -2649,15 +2333,9 @@
           <t>NODATA</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="3" t="n">
         <v>44307</v>
       </c>
       <c r="D30" t="inlineStr">
@@ -2680,7 +2358,6 @@
       <c r="I30" t="n">
         <v>42</v>
       </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2692,8 +2369,6 @@
       <c r="M30" t="n">
         <v>9400</v>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
         <v>8</v>
       </c>
@@ -2718,18 +2393,11 @@
       <c r="W30" t="n">
         <v>5</v>
       </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>1386</v>
       </c>
@@ -2745,7 +2413,6 @@
       <c r="I31" t="n">
         <v>45</v>
       </c>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2757,8 +2424,6 @@
       <c r="M31" t="n">
         <v>11463</v>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
         <v>7</v>
       </c>
@@ -2783,18 +2448,11 @@
       <c r="W31" t="n">
         <v>5</v>
       </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>1386</v>
       </c>
@@ -2810,7 +2468,6 @@
       <c r="I32" t="n">
         <v>46</v>
       </c>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2822,8 +2479,6 @@
       <c r="M32" t="n">
         <v>11463</v>
       </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
         <v>7</v>
       </c>
@@ -2850,18 +2505,11 @@
       <c r="W32" t="n">
         <v>16</v>
       </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>1394</v>
       </c>
@@ -2877,7 +2525,6 @@
       <c r="I33" t="n">
         <v>46</v>
       </c>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>NODATA</t>
@@ -2889,8 +2536,6 @@
       <c r="M33" t="n">
         <v>11463</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
         <v>7</v>
       </c>
@@ -2917,15 +2562,9 @@
       <c r="W33" t="n">
         <v>16</v>
       </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="3" t="n">
         <v>44322</v>
       </c>
       <c r="D34" t="inlineStr">
@@ -2948,7 +2587,6 @@
       <c r="I34" t="n">
         <v>47</v>
       </c>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>4209</v>
       </c>
@@ -2958,8 +2596,6 @@
       <c r="M34" t="n">
         <v>13338</v>
       </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
         <v>9</v>
       </c>
@@ -2984,15 +2620,9 @@
       <c r="W34" t="n">
         <v>23</v>
       </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="3" t="n">
         <v>44335</v>
       </c>
       <c r="D35" t="inlineStr">
@@ -3015,7 +2645,6 @@
       <c r="I35" t="n">
         <v>49</v>
       </c>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>4897</v>
       </c>
@@ -3025,8 +2654,6 @@
       <c r="M35" t="n">
         <v>14974</v>
       </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
         <v>13</v>
       </c>
@@ -3051,18 +2678,11 @@
       <c r="W35" t="n">
         <v>34</v>
       </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>1550</v>
       </c>
@@ -3078,7 +2698,6 @@
       <c r="I36" t="n">
         <v>51</v>
       </c>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>5296</v>
       </c>
@@ -3088,8 +2707,6 @@
       <c r="M36" t="n">
         <v>14974</v>
       </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
         <v>13</v>
       </c>
@@ -3114,15 +2731,9 @@
       <c r="W36" t="n">
         <v>34</v>
       </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="3" t="n">
         <v>44349</v>
       </c>
       <c r="D37" t="inlineStr">
@@ -3145,7 +2756,6 @@
       <c r="I37" t="n">
         <v>53</v>
       </c>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>5792</v>
       </c>
@@ -3155,8 +2765,6 @@
       <c r="M37" t="n">
         <v>17095</v>
       </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
         <v>13</v>
       </c>
@@ -3181,15 +2789,9 @@
       <c r="W37" t="n">
         <v>34</v>
       </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="3" t="n">
         <v>44363</v>
       </c>
       <c r="D38" t="inlineStr">
@@ -3212,7 +2814,6 @@
       <c r="I38" t="n">
         <v>59</v>
       </c>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>6826</v>
       </c>
@@ -3252,15 +2853,9 @@
       <c r="W38" t="n">
         <v>39</v>
       </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="D39" t="inlineStr">
@@ -3283,7 +2878,6 @@
       <c r="I39" t="n">
         <v>62</v>
       </c>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>8060</v>
       </c>
@@ -3323,15 +2917,9 @@
       <c r="W39" t="n">
         <v>39</v>
       </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="3" t="n">
         <v>44391</v>
       </c>
       <c r="D40" t="inlineStr">
@@ -3354,7 +2942,6 @@
       <c r="I40" t="n">
         <v>63</v>
       </c>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>9491</v>
       </c>
@@ -3394,15 +2981,9 @@
       <c r="W40" t="n">
         <v>40</v>
       </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="D41" t="inlineStr">
@@ -3425,7 +3006,6 @@
       <c r="I41" t="n">
         <v>69</v>
       </c>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>11480</v>
       </c>
@@ -3465,15 +3045,9 @@
       <c r="W41" t="n">
         <v>42</v>
       </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="3" t="n">
         <v>44426</v>
       </c>
       <c r="D42" t="inlineStr">
@@ -3496,7 +3070,6 @@
       <c r="I42" t="n">
         <v>73</v>
       </c>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>12759</v>
       </c>
@@ -3536,15 +3109,9 @@
       <c r="W42" t="n">
         <v>42</v>
       </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="D43" t="inlineStr">
@@ -3567,7 +3134,6 @@
       <c r="I43" t="n">
         <v>79</v>
       </c>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>14049</v>
       </c>
@@ -3607,15 +3173,9 @@
       <c r="W43" t="n">
         <v>42</v>
       </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="3" t="n">
         <v>44454</v>
       </c>
       <c r="D44" t="inlineStr">
@@ -3638,7 +3198,6 @@
       <c r="I44" t="n">
         <v>79</v>
       </c>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>15622</v>
       </c>
@@ -3678,15 +3237,9 @@
       <c r="W44" t="n">
         <v>42</v>
       </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="3" t="n">
         <v>44468</v>
       </c>
       <c r="D45" t="inlineStr">
@@ -3709,7 +3262,6 @@
       <c r="I45" t="n">
         <v>83</v>
       </c>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>16964</v>
       </c>
@@ -3763,9 +3315,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="3" t="n">
         <v>44483</v>
       </c>
       <c r="D46" t="inlineStr">
@@ -3788,7 +3338,6 @@
       <c r="I46" t="n">
         <v>86</v>
       </c>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>18327</v>
       </c>
@@ -3842,9 +3391,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="3" t="n">
         <v>44496</v>
       </c>
       <c r="D47" t="inlineStr">
@@ -3867,7 +3414,6 @@
       <c r="I47" t="n">
         <v>88</v>
       </c>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>19876</v>
       </c>
@@ -3921,9 +3467,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="3" t="n">
         <v>44497</v>
       </c>
       <c r="D48" t="inlineStr">
@@ -3946,12 +3490,9 @@
       <c r="I48" t="n">
         <v>88</v>
       </c>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>20062</v>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>12</v>
       </c>
@@ -3996,9 +3537,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="3" t="n">
         <v>44510</v>
       </c>
       <c r="D49" t="inlineStr">
@@ -4021,7 +3560,6 @@
       <c r="I49" t="n">
         <v>95</v>
       </c>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>21523</v>
       </c>
@@ -4075,9 +3613,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="3" t="n">
         <v>44524</v>
       </c>
       <c r="D50" t="inlineStr">
@@ -4100,7 +3636,6 @@
       <c r="I50" t="n">
         <v>101</v>
       </c>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>23202</v>
       </c>
@@ -4154,9 +3689,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="3" t="n">
         <v>44550</v>
       </c>
       <c r="D51" t="inlineStr">
@@ -4179,7 +3712,6 @@
       <c r="I51" t="n">
         <v>108</v>
       </c>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>27599</v>
       </c>
@@ -4233,9 +3765,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="3" t="n">
         <v>44580</v>
       </c>
       <c r="D52" t="inlineStr">
@@ -4258,7 +3788,6 @@
       <c r="I52" t="n">
         <v>114</v>
       </c>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>33434</v>
       </c>
@@ -4312,9 +3841,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="3" t="n">
         <v>44594</v>
       </c>
       <c r="D53" t="inlineStr">
@@ -4337,7 +3864,6 @@
       <c r="I53" t="n">
         <v>117</v>
       </c>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>38145</v>
       </c>
@@ -4391,9 +3917,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="3" t="n">
         <v>44608</v>
       </c>
       <c r="D54" t="inlineStr">
@@ -4416,7 +3940,6 @@
       <c r="I54" t="n">
         <v>122</v>
       </c>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>41728</v>
       </c>
@@ -4470,9 +3993,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="3" t="n">
         <v>44622</v>
       </c>
       <c r="D55" t="inlineStr">
@@ -4495,7 +4016,6 @@
       <c r="I55" t="n">
         <v>128</v>
       </c>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>42253</v>
       </c>
@@ -4549,9 +4069,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="3" t="n">
         <v>44636</v>
       </c>
       <c r="D56" t="inlineStr">
@@ -4574,7 +4092,6 @@
       <c r="I56" t="n">
         <v>131</v>
       </c>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>43421</v>
       </c>
@@ -4596,8 +4113,6 @@
       <c r="Q56" t="n">
         <v>60</v>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
       <c r="T56" t="n">
         <v>881</v>
       </c>
@@ -4624,9 +4139,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="3" t="n">
         <v>44650</v>
       </c>
       <c r="D57" t="inlineStr">
@@ -4649,7 +4162,6 @@
       <c r="I57" t="n">
         <v>136</v>
       </c>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>44490</v>
       </c>
@@ -4671,8 +4183,6 @@
       <c r="Q57" t="n">
         <v>62</v>
       </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
       <c r="T57" t="n">
         <v>890</v>
       </c>
@@ -4699,9 +4209,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="3" t="n">
         <v>44669</v>
       </c>
       <c r="D58" t="inlineStr">
@@ -4724,7 +4232,6 @@
       <c r="I58" t="n">
         <v>142</v>
       </c>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>46595</v>
       </c>
@@ -4746,8 +4253,6 @@
       <c r="Q58" t="n">
         <v>62</v>
       </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
       <c r="T58" t="n">
         <v>892</v>
       </c>
@@ -4774,9 +4279,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="3" t="n">
         <v>44683</v>
       </c>
       <c r="D59" t="inlineStr">
@@ -4799,7 +4302,6 @@
       <c r="I59" t="n">
         <v>147</v>
       </c>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>47073</v>
       </c>
@@ -4821,8 +4323,6 @@
       <c r="Q59" t="n">
         <v>63</v>
       </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
       <c r="T59" t="n">
         <v>896</v>
       </c>
@@ -4849,9 +4349,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="3" t="n">
         <v>44692</v>
       </c>
       <c r="D60" t="inlineStr">
@@ -4874,7 +4372,6 @@
       <c r="I60" t="n">
         <v>151</v>
       </c>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>47970</v>
       </c>
@@ -4896,8 +4393,6 @@
       <c r="Q60" t="n">
         <v>63</v>
       </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
       <c r="T60" t="n">
         <v>896</v>
       </c>
@@ -4924,9 +4419,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="3" t="n">
         <v>44706</v>
       </c>
       <c r="D61" t="inlineStr">
@@ -4949,12 +4442,9 @@
       <c r="I61" t="n">
         <v>154</v>
       </c>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>48609</v>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
         <v>23</v>
       </c>
@@ -4967,8 +4457,6 @@
       <c r="Q61" t="n">
         <v>63</v>
       </c>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
       <c r="T61" t="n">
         <v>914</v>
       </c>
@@ -4995,9 +4483,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="3" t="n">
         <v>44720</v>
       </c>
       <c r="D62" t="inlineStr">
@@ -5020,7 +4506,6 @@
       <c r="I62" t="n">
         <v>160</v>
       </c>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>48764</v>
       </c>
@@ -5042,8 +4527,6 @@
       <c r="Q62" t="n">
         <v>65</v>
       </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
       <c r="T62" t="n">
         <v>919</v>
       </c>
@@ -5070,9 +4553,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="3" t="n">
         <v>44734</v>
       </c>
       <c r="D63" t="inlineStr">
@@ -5095,7 +4576,6 @@
       <c r="I63" t="n">
         <v>164</v>
       </c>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>50168</v>
       </c>
@@ -5117,8 +4597,6 @@
       <c r="Q63" t="n">
         <v>65</v>
       </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
       <c r="T63" t="n">
         <v>919</v>
       </c>
@@ -5145,9 +4623,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="D64" t="inlineStr">
@@ -5170,12 +4646,9 @@
       <c r="I64" t="n">
         <v>171</v>
       </c>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>49748</v>
       </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
         <v>24</v>
       </c>
@@ -5188,8 +4661,6 @@
       <c r="Q64" t="n">
         <v>65</v>
       </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
       <c r="T64" t="n">
         <v>919</v>
       </c>
@@ -5216,9 +4687,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="3" t="n">
         <v>44757</v>
       </c>
       <c r="D65" t="inlineStr">
@@ -5247,8 +4716,6 @@
       <c r="K65" t="n">
         <v>50051</v>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>24</v>
       </c>
@@ -5261,8 +4728,6 @@
       <c r="Q65" t="n">
         <v>65</v>
       </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
       <c r="T65" t="n">
         <v>930</v>
       </c>
@@ -5289,9 +4754,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="3" t="n">
         <v>44776</v>
       </c>
       <c r="D66" t="inlineStr">
@@ -5320,8 +4783,6 @@
       <c r="K66" t="n">
         <v>51981</v>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
         <v>26</v>
       </c>
@@ -5334,8 +4795,6 @@
       <c r="Q66" t="n">
         <v>66</v>
       </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
       <c r="T66" t="n">
         <v>930</v>
       </c>
@@ -5362,9 +4821,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="D67" t="inlineStr">
@@ -5393,8 +4850,6 @@
       <c r="K67" t="n">
         <v>51307</v>
       </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>25</v>
       </c>
@@ -5407,8 +4862,6 @@
       <c r="Q67" t="n">
         <v>66</v>
       </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
         <v>931</v>
       </c>
@@ -5435,9 +4888,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="D68" t="inlineStr">
@@ -5466,8 +4917,6 @@
       <c r="K68" t="n">
         <v>50183</v>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>22</v>
       </c>
@@ -5480,8 +4929,6 @@
       <c r="Q68" t="n">
         <v>66</v>
       </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
       <c r="T68" t="n">
         <v>923</v>
       </c>
@@ -5508,9 +4955,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" s="2" t="n">
+      <c r="C69" s="3" t="n">
         <v>44818</v>
       </c>
       <c r="D69" t="inlineStr">
@@ -5533,12 +4978,9 @@
       <c r="I69" t="n">
         <v>184</v>
       </c>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>49300</v>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
         <v>24</v>
       </c>
@@ -5551,8 +4993,6 @@
       <c r="Q69" t="n">
         <v>66</v>
       </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
         <v>937</v>
       </c>
@@ -5579,9 +5019,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="3" t="n">
         <v>44832</v>
       </c>
       <c r="D70" t="inlineStr">
@@ -5610,8 +5048,6 @@
       <c r="K70" t="n">
         <v>50210</v>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
         <v>22</v>
       </c>
@@ -5624,8 +5060,6 @@
       <c r="Q70" t="n">
         <v>68</v>
       </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
       <c r="T70" t="n">
         <v>1059</v>
       </c>
@@ -5652,9 +5086,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="3" t="n">
         <v>44846</v>
       </c>
       <c r="D71" t="inlineStr">
@@ -5683,8 +5115,6 @@
       <c r="K71" t="n">
         <v>45291</v>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
         <v>37</v>
       </c>
@@ -5697,8 +5127,6 @@
       <c r="Q71" t="n">
         <v>68</v>
       </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
       <c r="T71" t="n">
         <v>1059</v>
       </c>
@@ -5725,9 +5153,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="3" t="n">
         <v>44860</v>
       </c>
       <c r="D72" t="inlineStr">
@@ -5756,8 +5182,6 @@
       <c r="K72" t="n">
         <v>46347</v>
       </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
         <v>34</v>
       </c>
@@ -5770,8 +5194,6 @@
       <c r="Q72" t="n">
         <v>68</v>
       </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
       <c r="T72" t="n">
         <v>1059</v>
       </c>
@@ -5798,9 +5220,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="D73" t="inlineStr">
@@ -5829,8 +5249,6 @@
       <c r="K73" t="n">
         <v>45823</v>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
         <v>35</v>
       </c>
@@ -5843,8 +5261,6 @@
       <c r="Q73" t="n">
         <v>68</v>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
       <c r="T73" t="n">
         <v>1060</v>
       </c>
@@ -5871,9 +5287,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="3" t="n">
         <v>44888</v>
       </c>
       <c r="D74" t="inlineStr">
@@ -5902,8 +5316,6 @@
       <c r="K74" t="n">
         <v>45481</v>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
         <v>34</v>
       </c>
@@ -5916,8 +5328,6 @@
       <c r="Q74" t="n">
         <v>68</v>
       </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
       <c r="T74" t="n">
         <v>1061</v>
       </c>
@@ -5944,9 +5354,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="D75" t="inlineStr">
@@ -5975,8 +5383,6 @@
       <c r="K75" t="n">
         <v>44861</v>
       </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
         <v>32</v>
       </c>
@@ -5989,8 +5395,6 @@
       <c r="Q75" t="n">
         <v>68</v>
       </c>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
       <c r="T75" t="n">
         <v>1061</v>
       </c>
@@ -6017,9 +5421,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="D76" t="inlineStr">
@@ -6048,8 +5450,6 @@
       <c r="K76" t="n">
         <v>45377</v>
       </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
         <v>28</v>
       </c>
@@ -6062,8 +5462,6 @@
       <c r="Q76" t="n">
         <v>68</v>
       </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
       <c r="T76" t="n">
         <v>1054</v>
       </c>
@@ -6090,9 +5488,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="3" t="n">
         <v>44943</v>
       </c>
       <c r="D77" t="inlineStr">
@@ -6121,8 +5517,6 @@
       <c r="K77" t="n">
         <v>44751</v>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
         <v>22</v>
       </c>
@@ -6135,8 +5529,6 @@
       <c r="Q77" t="n">
         <v>69</v>
       </c>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
       <c r="T77" t="n">
         <v>1054</v>
       </c>
@@ -6168,8 +5560,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" s="2" t="n">
+      <c r="C78" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="D78" t="inlineStr">
@@ -6198,8 +5589,6 @@
       <c r="K78" t="n">
         <v>44242</v>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
         <v>22</v>
       </c>
@@ -6212,8 +5601,6 @@
       <c r="Q78" t="n">
         <v>72</v>
       </c>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
       <c r="T78" t="n">
         <v>1054</v>
       </c>
@@ -6240,9 +5627,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="3" t="n">
         <v>44970</v>
       </c>
       <c r="D79" t="inlineStr">
@@ -6271,8 +5656,6 @@
       <c r="K79" t="n">
         <v>44491</v>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
         <v>22</v>
       </c>
@@ -6285,8 +5668,6 @@
       <c r="Q79" t="n">
         <v>72</v>
       </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
       <c r="T79" t="n">
         <v>1055</v>
       </c>
@@ -6313,9 +5694,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="D80" t="inlineStr">
@@ -6344,8 +5723,6 @@
       <c r="K80" t="n">
         <v>44040</v>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
         <v>24</v>
       </c>
@@ -6358,8 +5735,6 @@
       <c r="Q80" t="n">
         <v>72</v>
       </c>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
       <c r="T80" t="n">
         <v>1055</v>
       </c>
@@ -6386,9 +5761,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="3" t="n">
         <v>44999</v>
       </c>
       <c r="D81" t="inlineStr">
@@ -6417,8 +5790,6 @@
       <c r="K81" t="n">
         <v>40390</v>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
         <v>25</v>
       </c>
@@ -6431,8 +5802,6 @@
       <c r="Q81" t="n">
         <v>72</v>
       </c>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
       <c r="T81" t="n">
         <v>1055</v>
       </c>
@@ -6459,9 +5828,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="3" t="n">
         <v>45013</v>
       </c>
       <c r="D82" t="inlineStr">
@@ -6490,8 +5857,6 @@
       <c r="K82" t="n">
         <v>35316</v>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
         <v>26</v>
       </c>
@@ -6504,8 +5869,6 @@
       <c r="Q82" t="n">
         <v>72</v>
       </c>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
       <c r="T82" t="n">
         <v>1058</v>
       </c>
@@ -6532,9 +5895,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="3" t="n">
         <v>45027</v>
       </c>
       <c r="D83" t="inlineStr">
@@ -6563,8 +5924,6 @@
       <c r="K83" t="n">
         <v>24449</v>
       </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
         <v>27</v>
       </c>
@@ -6577,8 +5936,6 @@
       <c r="Q83" t="n">
         <v>72</v>
       </c>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
       <c r="T83" t="n">
         <v>1063</v>
       </c>
@@ -6605,9 +5962,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="3" t="n">
         <v>45045</v>
       </c>
       <c r="D84" t="inlineStr">
@@ -6636,8 +5991,6 @@
       <c r="K84" t="n">
         <v>140</v>
       </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
         <v>30</v>
       </c>
@@ -6650,8 +6003,6 @@
       <c r="Q84" t="n">
         <v>72</v>
       </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
       <c r="T84" t="n">
         <v>1059</v>
       </c>
@@ -6678,9 +6029,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="3" t="n">
         <v>45056</v>
       </c>
       <c r="D85" t="inlineStr">
@@ -6709,8 +6058,6 @@
       <c r="K85" t="n">
         <v>148</v>
       </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
         <v>31</v>
       </c>
@@ -6723,8 +6070,6 @@
       <c r="Q85" t="n">
         <v>73</v>
       </c>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
       <c r="T85" t="n">
         <v>1078</v>
       </c>
@@ -6751,9 +6096,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="3" t="n">
         <v>45099</v>
       </c>
       <c r="D86" t="inlineStr">
@@ -6782,8 +6125,6 @@
       <c r="K86" t="n">
         <v>708</v>
       </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
         <v>38</v>
       </c>
@@ -6796,8 +6137,6 @@
       <c r="Q86" t="n">
         <v>73</v>
       </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
       <c r="T86" t="n">
         <v>1079</v>
       </c>
@@ -6824,9 +6163,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="3" t="n">
         <v>45111</v>
       </c>
       <c r="D87" t="inlineStr">
@@ -6855,8 +6192,6 @@
       <c r="K87" t="n">
         <v>1388</v>
       </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
         <v>39</v>
       </c>
@@ -6869,8 +6204,6 @@
       <c r="Q87" t="n">
         <v>73</v>
       </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
       <c r="T87" t="n">
         <v>1083</v>
       </c>
@@ -7010,6 +6343,35 @@
           <t> </t>
         </is>
       </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/KICS-KPIs-over-time.xlsx
+++ b/KICS-KPIs-over-time.xlsx
@@ -346,7 +346,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -894,7 +894,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -972,7 +972,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1010,7 +1010,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -7501,7 +7501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
@@ -8114,32 +8114,33 @@
         <v>2015652</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+    <row r="74"/>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KICS-KPIs-over-time.xlsx
+++ b/KICS-KPIs-over-time.xlsx
@@ -346,7 +346,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -894,7 +894,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -972,7 +972,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1010,7 +1010,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1388,7 +1388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
@@ -7488,8 +7488,6 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>2023/07/17</t>
@@ -7517,12 +7515,9 @@
       <c r="I88" t="n">
         <v>252</v>
       </c>
-      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>2153</v>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
         <v>42</v>
       </c>
@@ -7535,8 +7530,6 @@
       <c r="Q88" t="n">
         <v>73</v>
       </c>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
           <t>1084</t>
@@ -7553,14 +7546,89 @@
       <c r="W88" t="n">
         <v>64</v>
       </c>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
       <c r="Z88">
         <f>ROUNDUP(Y87/_xlfn.DAYS(C87,"2021-08-04"),0)</f>
         <v/>
       </c>
       <c r="AA88">
         <f>ROUNDUP((Y87-Y86)/_xlfn.DAYS(C87,C86),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2023/07/17</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>v1.7.3</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2492</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>43812</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2065353</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1639</v>
+      </c>
+      <c r="I89" t="n">
+        <v>252</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2156</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>42</v>
+      </c>
+      <c r="O89" t="n">
+        <v>315</v>
+      </c>
+      <c r="P89" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>73</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="V89" t="n">
+        <v>7166</v>
+      </c>
+      <c r="W89" t="n">
+        <v>64</v>
+      </c>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89">
+        <f>ROUNDUP(Y89/_xlfn.DAYS(C89,"2021-08-04"),0)</f>
+        <v/>
+      </c>
+      <c r="AA89">
+        <f>ROUNDUP((Y89-Y88)/_xlfn.DAYS(C89,C88),0)</f>
         <v/>
       </c>
     </row>
